--- a/translation/xlsx/_tsum_024_1a.xlsx
+++ b/translation/xlsx/_tsum_024_1a.xlsx
@@ -1290,7 +1290,7 @@
     <t>She said only that, put the phone down, and got her purse out of her locker.</t>
   </si>
   <si>
-    <t>거기까지 말하고는 수화기를 내려놓고, 사물함에서 핸드백을 꺼낸다. \</t>
+    <t>거기까지 말하고는 수화기를 내려놓고, 사물함에서 핸드백을 꺼낸다.\"</t>
   </si>
   <si>
     <t xml:space="preserve">그렇게 말하며 수화기를 내려놓고, 사물함에서 핸드백을 꺼냈다. </t>
@@ -2281,7 +2281,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2299,10 +2299,6 @@
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <name val="Calibri"/>
     </font>
     <font/>
@@ -2352,7 +2348,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2373,15 +2369,12 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -3387,14 +3380,14 @@
         <v>182</v>
       </c>
       <c r="G40" s="6"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="9" t="s">
+      <c r="H40" s="4"/>
+      <c r="I40" s="7" t="s">
         <v>183</v>
       </c>
       <c r="J40" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="K40" s="10"/>
+      <c r="K40" s="8"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
@@ -3957,11 +3950,11 @@
       <c r="C70" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="9" t="s">
         <v>322</v>
       </c>
       <c r="H70" s="4"/>
-      <c r="I70" s="11" t="s">
+      <c r="I70" s="9" t="s">
         <v>322</v>
       </c>
       <c r="J70" s="1" t="s">
@@ -4011,11 +4004,11 @@
       <c r="C73" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="9" t="s">
         <v>334</v>
       </c>
       <c r="H73" s="4"/>
-      <c r="I73" s="11" t="s">
+      <c r="I73" s="9" t="s">
         <v>334</v>
       </c>
       <c r="J73" s="1" t="s">
@@ -4401,7 +4394,7 @@
       <c r="C94" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="10" t="s">
         <v>424</v>
       </c>
       <c r="H94" s="4"/>
@@ -4608,7 +4601,7 @@
       <c r="C105" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D105" s="12" t="s">
+      <c r="D105" s="11" t="s">
         <v>474</v>
       </c>
       <c r="H105" s="4"/>
@@ -4854,7 +4847,7 @@
       <c r="C118" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D118" s="11" t="s">
         <v>535</v>
       </c>
       <c r="H118" s="4"/>
@@ -6480,7 +6473,7 @@
       <c r="H410" s="4"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="H411" s="13"/>
+      <c r="H411" s="12"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="H412" s="4"/>
@@ -6864,7 +6857,7 @@
       <c r="H538" s="4"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="H539" s="13"/>
+      <c r="H539" s="12"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="H540" s="4"/>
@@ -7242,7 +7235,7 @@
       <c r="H664" s="4"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="H665" s="13"/>
+      <c r="H665" s="12"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="H666" s="4"/>
